--- a/Normalisasi Database.xlsx
+++ b/Normalisasi Database.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BUKU\MSIB\BERKAS_MSIB\Tugas\MySQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C027434C-74D2-442E-BF11-B754E6A3792F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249B9CE1-0C9E-44A5-BFFB-AC09AE2A4A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{96DCD083-D29A-496B-9799-3FD385EFBDA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{96DCD083-D29A-496B-9799-3FD385EFBDA7}"/>
   </bookViews>
   <sheets>
     <sheet name="LATIHAN" sheetId="1" r:id="rId1"/>
-    <sheet name="TUGAS" sheetId="2" r:id="rId2"/>
+    <sheet name="TUGAS 3" sheetId="2" r:id="rId2"/>
+    <sheet name="TUGAS 4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="150">
   <si>
     <t>Latihan Normalisasi Database</t>
   </si>
@@ -305,13 +306,184 @@
   </si>
   <si>
     <t>satuan kerja</t>
+  </si>
+  <si>
+    <t>kehadiran</t>
+  </si>
+  <si>
+    <t>data narasumber</t>
+  </si>
+  <si>
+    <t>materi pelatihan</t>
+  </si>
+  <si>
+    <t>pendaftaran lewat online</t>
+  </si>
+  <si>
+    <t>id_narasumber</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>table narasumber</t>
+  </si>
+  <si>
+    <t>materi</t>
+  </si>
+  <si>
+    <t>Siska</t>
+  </si>
+  <si>
+    <t>Darren</t>
+  </si>
+  <si>
+    <t>Alvi</t>
+  </si>
+  <si>
+    <t>jenis kelamin</t>
+  </si>
+  <si>
+    <t>Rania</t>
+  </si>
+  <si>
+    <t>Agust</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Jabatan</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>KepBid Keuangan</t>
+  </si>
+  <si>
+    <t>KepBid Marketing</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Manajemen waktu di perusahaan</t>
+  </si>
+  <si>
+    <t>Cara mengatur buku keuangan</t>
+  </si>
+  <si>
+    <t>Pelatihan cara marketing yang baik</t>
+  </si>
+  <si>
+    <t>Peraturan tertulis di perusahaan</t>
+  </si>
+  <si>
+    <t>Pengenalan struktur perusahaan</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table daftar </t>
+  </si>
+  <si>
+    <t>Id_peserta</t>
+  </si>
+  <si>
+    <t>alamat</t>
+  </si>
+  <si>
+    <t>Anggi</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Sulthan</t>
+  </si>
+  <si>
+    <t>Akbar</t>
+  </si>
+  <si>
+    <t>Ilham</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Keyra</t>
+  </si>
+  <si>
+    <t>Bali</t>
+  </si>
+  <si>
+    <t>table pelatihan</t>
+  </si>
+  <si>
+    <t>no_kegiatan</t>
+  </si>
+  <si>
+    <t>Mulai kegiatan</t>
+  </si>
+  <si>
+    <t>Akhir kegiatan</t>
+  </si>
+  <si>
+    <t>15/03/2023</t>
+  </si>
+  <si>
+    <t>15/04/2023</t>
+  </si>
+  <si>
+    <t>20/04/2023</t>
+  </si>
+  <si>
+    <t>20/05/2023</t>
+  </si>
+  <si>
+    <t>23/08/2023</t>
+  </si>
+  <si>
+    <t>23/09/2023</t>
+  </si>
+  <si>
+    <t>25/10/2023</t>
+  </si>
+  <si>
+    <t>25/11/2023</t>
+  </si>
+  <si>
+    <t>mencatat kegiatan pelatihan tahunan yang akan berjalan ✅</t>
+  </si>
+  <si>
+    <t>table kehadiran</t>
+  </si>
+  <si>
+    <t>id_kehadiran</t>
+  </si>
+  <si>
+    <t>Hadir</t>
+  </si>
+  <si>
+    <t>Izin</t>
+  </si>
+  <si>
+    <t>Sakit</t>
+  </si>
+  <si>
+    <t>Alpha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,8 +497,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +520,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,9 +685,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,11 +700,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="43">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -532,42 +747,19 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -595,6 +787,29 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -616,6 +831,29 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -642,8 +880,14 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -656,12 +900,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -685,6 +923,75 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -709,6 +1016,29 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -732,21 +1062,10 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -776,72 +1095,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -849,9 +1102,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -865,260 +1116,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1143,6 +1140,30 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1167,26 +1188,28 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1211,26 +1234,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1255,6 +1279,117 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1276,10 +1411,69 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -1295,31 +1489,116 @@
 </styleSheet>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Group Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Note</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA0BF7DF-018E-4AF9-B9ED-960CA3D49690}" name="Table1" displayName="Table1" ref="B4:H15" headerRowCount="0" headerRowDxfId="11" totalsRowDxfId="10" headerRowBorderDxfId="42" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA0BF7DF-018E-4AF9-B9ED-960CA3D49690}" name="Table1" displayName="Table1" ref="B4:H15" headerRowCount="0" headerRowDxfId="42" totalsRowDxfId="39" headerRowBorderDxfId="41" tableBorderDxfId="40">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A5ABFA58-111A-4B90-9402-696C8DA86B13}" name="No Pengajuan" totalsRowLabel="Total" headerRowDxfId="41" dataDxfId="18" totalsRowDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{D8186DBC-106F-43E8-A963-562A9AF34666}" name="NIP" headerRowDxfId="39" dataDxfId="17" totalsRowDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{C179DD0A-DA4D-45AD-8438-3F6FA3E3D32A}" name="Nama" headerRowDxfId="37" dataDxfId="16" totalsRowDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{6972DFA3-ED69-4D81-A105-3597A2301CA5}" name="Satuan Kerja" headerRowDxfId="35" dataDxfId="15" totalsRowDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{879D2E35-D0D4-4E1B-9F0F-546273C94B0A}" name="Tanggal Awal" headerRowDxfId="33" dataDxfId="14" totalsRowDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{E922AB05-CE00-4A40-814C-8AFDF186A10D}" name="Tanggal Akhir" headerRowDxfId="31" dataDxfId="13" totalsRowDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{1459419F-3789-49B9-82A5-6A46F4673FE0}" name="Status" totalsRowFunction="count" headerRowDxfId="29" dataDxfId="12" totalsRowDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{A5ABFA58-111A-4B90-9402-696C8DA86B13}" name="No Pengajuan" totalsRowLabel="Total" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{D8186DBC-106F-43E8-A963-562A9AF34666}" name="NIP" headerRowDxfId="35" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{C179DD0A-DA4D-45AD-8438-3F6FA3E3D32A}" name="Nama" headerRowDxfId="32" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{6972DFA3-ED69-4D81-A105-3597A2301CA5}" name="Satuan Kerja" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{879D2E35-D0D4-4E1B-9F0F-546273C94B0A}" name="Tanggal Awal" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{E922AB05-CE00-4A40-814C-8AFDF186A10D}" name="Tanggal Akhir" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{1459419F-3789-49B9-82A5-6A46F4673FE0}" name="Status" totalsRowFunction="count" headerRowDxfId="20" dataDxfId="19" totalsRowDxfId="18"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5EF16E98-8898-4BF0-9539-6A2728F463AD}" name="Table13" displayName="Table13" ref="B20:H31" headerRowCount="0" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="27" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5EF16E98-8898-4BF0-9539-6A2728F463AD}" name="Table13" displayName="Table13" ref="B20:H31" headerRowCount="0" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F9506625-2157-408A-A817-D6FA0ABEC736}" name="No Pengajuan" headerRowDxfId="26" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{F7FF8085-5F64-47F2-9EDA-B44B6E700B22}" name="NIP" headerRowDxfId="25" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{83BAC65A-3E42-404C-B60C-66A7FAEA3F3C}" name="Nama" headerRowDxfId="24" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{9DC0F429-C2A9-4825-86DE-A94E868CF778}" name="Satuan Kerja" headerRowDxfId="23" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{868A963D-110A-424C-A0B0-2189D43EB51B}" name="Tanggal Awal" headerRowDxfId="22" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{CB0918D7-E2DD-41F8-95F2-A32A5C99B88E}" name="Tanggal Akhir" headerRowDxfId="21" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{7150A100-0DB8-467F-98DE-A30F1B8826B9}" name="Status" headerRowDxfId="20" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F9506625-2157-408A-A817-D6FA0ABEC736}" name="No Pengajuan" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{F7FF8085-5F64-47F2-9EDA-B44B6E700B22}" name="NIP" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{83BAC65A-3E42-404C-B60C-66A7FAEA3F3C}" name="Nama" headerRowDxfId="9" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{9DC0F429-C2A9-4825-86DE-A94E868CF778}" name="Satuan Kerja" headerRowDxfId="7" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{868A963D-110A-424C-A0B0-2189D43EB51B}" name="Tanggal Awal" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{CB0918D7-E2DD-41F8-95F2-A32A5C99B88E}" name="Tanggal Akhir" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{7150A100-0DB8-467F-98DE-A30F1B8826B9}" name="Status" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1625,7 +1904,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C3:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -1641,25 +1920,25 @@
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
     <col min="14" max="14" width="16.85546875" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -3053,19 +3332,19 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>10001</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>43831</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>43891</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -3076,13 +3355,13 @@
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>72</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -3093,13 +3372,13 @@
       <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>73</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -3110,13 +3389,13 @@
       <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14">
         <v>43892</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>43923</v>
       </c>
       <c r="H7" s="8" t="s">
@@ -3127,13 +3406,13 @@
       <c r="B8" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14">
         <v>44046</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>44107</v>
       </c>
       <c r="H8" s="8" t="s">
@@ -3144,13 +3423,13 @@
       <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14">
         <v>43955</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>43955</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -3161,19 +3440,19 @@
       <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>1032</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>43862</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <v>43863</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -3184,13 +3463,13 @@
       <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14">
         <v>43923</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <v>44014</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -3201,13 +3480,13 @@
       <c r="B12" s="9">
         <v>9</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14">
         <v>43954</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>44107</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -3218,19 +3497,19 @@
       <c r="B13" s="9">
         <v>10</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>10044</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>43925</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>43955</v>
       </c>
       <c r="H13" s="8" t="s">
@@ -3241,19 +3520,19 @@
       <c r="B14" s="9">
         <v>11</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>10021</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>74</v>
       </c>
       <c r="H14" s="8" t="s">
@@ -3264,13 +3543,13 @@
       <c r="B15" s="5">
         <v>12</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>75</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -3309,19 +3588,19 @@
       <c r="B20" s="7">
         <v>1</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>10001</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>43831</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <v>43891</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -3332,19 +3611,19 @@
       <c r="B21" s="9">
         <v>2</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>10001</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>72</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -3355,19 +3634,19 @@
       <c r="B22" s="9">
         <v>3</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>10001</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>73</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -3378,19 +3657,19 @@
       <c r="B23" s="9">
         <v>4</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>10001</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <v>43892</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <v>43923</v>
       </c>
       <c r="H23" s="8" t="s">
@@ -3401,19 +3680,19 @@
       <c r="B24" s="9">
         <v>5</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>10001</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="14">
         <v>44046</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <v>44107</v>
       </c>
       <c r="H24" s="8" t="s">
@@ -3424,19 +3703,19 @@
       <c r="B25" s="9">
         <v>6</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>10001</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="14">
         <v>43955</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <v>43955</v>
       </c>
       <c r="H25" s="8" t="s">
@@ -3447,19 +3726,19 @@
       <c r="B26" s="9">
         <v>7</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>10032</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="14">
         <v>43862</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <v>43863</v>
       </c>
       <c r="H26" s="8" t="s">
@@ -3470,19 +3749,19 @@
       <c r="B27" s="9">
         <v>8</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>10032</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="14">
         <v>43923</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <v>44014</v>
       </c>
       <c r="H27" s="8" t="s">
@@ -3493,19 +3772,19 @@
       <c r="B28" s="9">
         <v>9</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>10032</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="14">
         <v>43954</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="14">
         <v>44107</v>
       </c>
       <c r="H28" s="8" t="s">
@@ -3516,19 +3795,19 @@
       <c r="B29" s="9">
         <v>10</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <v>10044</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="14">
         <v>43925</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="14">
         <v>43955</v>
       </c>
       <c r="H29" s="8" t="s">
@@ -3539,19 +3818,19 @@
       <c r="B30" s="9">
         <v>11</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>10021</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="13" t="s">
         <v>74</v>
       </c>
       <c r="H30" s="8" t="s">
@@ -3562,19 +3841,19 @@
       <c r="B31" s="5">
         <v>12</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <v>10021</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>75</v>
       </c>
       <c r="H31" s="4" t="s">
@@ -3624,254 +3903,254 @@
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="14">
-        <v>1</v>
-      </c>
-      <c r="C38" s="14">
+      <c r="B38" s="13">
+        <v>1</v>
+      </c>
+      <c r="C38" s="13">
         <v>10001</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G38" s="14">
-        <v>1</v>
-      </c>
-      <c r="H38" s="14">
-        <v>1</v>
-      </c>
-      <c r="I38" s="15">
+      <c r="G38" s="13">
+        <v>1</v>
+      </c>
+      <c r="H38" s="13">
+        <v>1</v>
+      </c>
+      <c r="I38" s="14">
         <v>43831</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J38" s="14">
         <v>43891</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <v>2</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="13">
         <v>10032</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G39" s="14">
-        <v>1</v>
-      </c>
-      <c r="H39" s="14">
+      <c r="G39" s="13">
+        <v>1</v>
+      </c>
+      <c r="H39" s="13">
         <v>2</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J39" s="14" t="s">
+      <c r="J39" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="K39" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <v>3</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="13">
         <v>10044</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="14">
-        <v>1</v>
-      </c>
-      <c r="H40" s="14">
+      <c r="G40" s="13">
+        <v>1</v>
+      </c>
+      <c r="H40" s="13">
         <v>3</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <v>4</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="13">
         <v>10021</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="14">
-        <v>1</v>
-      </c>
-      <c r="H41" s="14">
+      <c r="G41" s="13">
+        <v>1</v>
+      </c>
+      <c r="H41" s="13">
         <v>4</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I41" s="14">
         <v>43892</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="14">
         <v>43923</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G42" s="14">
-        <v>1</v>
-      </c>
-      <c r="H42" s="14">
+      <c r="G42" s="13">
+        <v>1</v>
+      </c>
+      <c r="H42" s="13">
         <v>5</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="14">
         <v>44046</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="14">
         <v>44107</v>
       </c>
-      <c r="K42" s="14" t="s">
+      <c r="K42" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G43" s="14">
-        <v>1</v>
-      </c>
-      <c r="H43" s="14">
+      <c r="G43" s="13">
+        <v>1</v>
+      </c>
+      <c r="H43" s="13">
         <v>6</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="14">
         <v>43955</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="14">
         <v>43955</v>
       </c>
-      <c r="K43" s="14" t="s">
+      <c r="K43" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G44" s="14">
+      <c r="G44" s="13">
         <v>2</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="13">
         <v>7</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="14">
         <v>43862</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="14">
         <v>43863</v>
       </c>
-      <c r="K44" s="14" t="s">
+      <c r="K44" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G45" s="14">
+      <c r="G45" s="13">
         <v>2</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="13">
         <v>8</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="14">
         <v>43923</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J45" s="14">
         <v>44014</v>
       </c>
-      <c r="K45" s="14" t="s">
+      <c r="K45" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G46" s="14">
+      <c r="G46" s="13">
         <v>2</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="13">
         <v>9</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="14">
         <v>43954</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J46" s="14">
         <v>44107</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="K46" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G47" s="14">
+      <c r="G47" s="13">
         <v>3</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="13">
         <v>10</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="14">
         <v>43925</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J47" s="14">
         <v>43955</v>
       </c>
-      <c r="K47" s="14" t="s">
+      <c r="K47" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G48" s="14">
+      <c r="G48" s="13">
         <v>4</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="13">
         <v>11</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="I48" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="J48" s="14" t="s">
+      <c r="J48" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="K48" s="14" t="s">
+      <c r="K48" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G49" s="14">
+      <c r="G49" s="13">
         <v>4</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="13">
         <v>12</v>
       </c>
-      <c r="I49" s="14" t="s">
+      <c r="I49" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J49" s="14" t="s">
+      <c r="J49" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K49" s="14" t="s">
+      <c r="K49" s="13" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3909,56 +4188,56 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="14">
-        <v>1</v>
-      </c>
-      <c r="C55" s="14" t="s">
+      <c r="B55" s="13">
+        <v>1</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="14">
-        <v>1</v>
-      </c>
-      <c r="F55" s="14">
+      <c r="E55" s="13">
+        <v>1</v>
+      </c>
+      <c r="F55" s="13">
         <v>10001</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="14">
+      <c r="B56" s="13">
         <v>2</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="13">
         <v>2</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="13">
         <v>10032</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E57" s="14">
+      <c r="E57" s="13">
         <v>3</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="13">
         <v>10044</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3966,16 +4245,16 @@
       <c r="B58" t="s">
         <v>90</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="13">
         <v>4</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="13">
         <v>10021</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3988,10 +4267,10 @@
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="14">
-        <v>1</v>
-      </c>
-      <c r="C60" s="14" t="s">
+      <c r="B60" s="13">
+        <v>1</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>63</v>
       </c>
       <c r="E60" t="s">
@@ -3999,10 +4278,10 @@
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="14">
+      <c r="B61" s="13">
         <v>2</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="13" t="s">
         <v>65</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -4022,218 +4301,218 @@
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="14">
+      <c r="B62" s="13">
         <v>3</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E62" s="14">
-        <v>1</v>
-      </c>
-      <c r="F62" s="14">
-        <v>1</v>
-      </c>
-      <c r="G62" s="15">
+      <c r="E62" s="13">
+        <v>1</v>
+      </c>
+      <c r="F62" s="13">
+        <v>1</v>
+      </c>
+      <c r="G62" s="14">
         <v>43831</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H62" s="14">
         <v>43891</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I62" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="14">
+      <c r="B63" s="13">
         <v>4</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="14">
-        <v>1</v>
-      </c>
-      <c r="F63" s="14">
+      <c r="E63" s="13">
+        <v>1</v>
+      </c>
+      <c r="F63" s="13">
         <v>2</v>
       </c>
-      <c r="G63" s="15" t="s">
+      <c r="G63" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I63" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E64" s="14">
-        <v>1</v>
-      </c>
-      <c r="F64" s="14">
+      <c r="E64" s="13">
+        <v>1</v>
+      </c>
+      <c r="F64" s="13">
         <v>3</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I64" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E65" s="14">
-        <v>1</v>
-      </c>
-      <c r="F65" s="14">
+      <c r="E65" s="13">
+        <v>1</v>
+      </c>
+      <c r="F65" s="13">
         <v>4</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G65" s="14">
         <v>43892</v>
       </c>
-      <c r="H65" s="15">
+      <c r="H65" s="14">
         <v>43923</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I65" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E66" s="14">
-        <v>1</v>
-      </c>
-      <c r="F66" s="14">
+      <c r="E66" s="13">
+        <v>1</v>
+      </c>
+      <c r="F66" s="13">
         <v>5</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G66" s="14">
         <v>44046</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H66" s="14">
         <v>44107</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I66" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E67" s="14">
-        <v>1</v>
-      </c>
-      <c r="F67" s="14">
+      <c r="E67" s="13">
+        <v>1</v>
+      </c>
+      <c r="F67" s="13">
         <v>6</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G67" s="14">
         <v>43955</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H67" s="14">
         <v>43955</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I67" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E68" s="14">
+      <c r="E68" s="13">
         <v>2</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="13">
         <v>7</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="14">
         <v>43862</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H68" s="14">
         <v>43863</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I68" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E69" s="14">
+      <c r="E69" s="13">
         <v>2</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="13">
         <v>8</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="14">
         <v>43923</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H69" s="14">
         <v>44014</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I69" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E70" s="14">
+      <c r="E70" s="13">
         <v>2</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="13">
         <v>9</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G70" s="14">
         <v>43954</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H70" s="14">
         <v>44107</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I70" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E71" s="14">
+      <c r="E71" s="13">
         <v>3</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F71" s="13">
         <v>10</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="14">
         <v>43925</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="14">
         <v>43955</v>
       </c>
-      <c r="I71" s="14">
+      <c r="I71" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E72" s="14">
+      <c r="E72" s="13">
         <v>4</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="13">
         <v>11</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="G72" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H72" s="14" t="s">
+      <c r="H72" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I72" s="14">
+      <c r="I72" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E73" s="14">
+      <c r="E73" s="13">
         <v>4</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="13">
         <v>12</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="G73" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H73" s="14" t="s">
+      <c r="H73" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I73" s="14">
+      <c r="I73" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4246,4 +4525,667 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8410DE32-39AD-4823-B6E2-1EBF0EB9313A}">
+  <dimension ref="C3:L46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1001</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1002</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1003</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="13">
+        <v>1004</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G9" s="13">
+        <v>1005</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="13">
+        <v>10101</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1001</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14">
+        <v>45262</v>
+      </c>
+      <c r="J15" s="14">
+        <v>45263</v>
+      </c>
+      <c r="K15" s="13">
+        <v>10104</v>
+      </c>
+      <c r="L15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="13">
+        <v>10102</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1001</v>
+      </c>
+      <c r="H16" s="13">
+        <v>3</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="13">
+        <v>10102</v>
+      </c>
+      <c r="L16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="13">
+        <v>10103</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1001</v>
+      </c>
+      <c r="H17" s="13">
+        <v>4</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="13">
+        <v>10103</v>
+      </c>
+      <c r="L17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="13">
+        <v>10104</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1002</v>
+      </c>
+      <c r="H18" s="13">
+        <v>2</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" s="13">
+        <v>10104</v>
+      </c>
+      <c r="L18" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="13">
+        <v>10105</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1002</v>
+      </c>
+      <c r="H19" s="13">
+        <v>3</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" s="13">
+        <v>10101</v>
+      </c>
+      <c r="L19" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="13">
+        <v>10106</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1003</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1</v>
+      </c>
+      <c r="I20" s="14">
+        <v>45262</v>
+      </c>
+      <c r="J20" s="14">
+        <v>45263</v>
+      </c>
+      <c r="K20" s="13">
+        <v>10101</v>
+      </c>
+      <c r="L20" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="13">
+        <v>10107</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1003</v>
+      </c>
+      <c r="H21" s="18">
+        <v>2</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="13">
+        <v>10106</v>
+      </c>
+      <c r="L21" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G22" s="13">
+        <v>1003</v>
+      </c>
+      <c r="H22" s="18">
+        <v>3</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="13">
+        <v>10105</v>
+      </c>
+      <c r="L22" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G23" s="13">
+        <v>1003</v>
+      </c>
+      <c r="H23" s="18">
+        <v>4</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="13">
+        <v>10102</v>
+      </c>
+      <c r="L23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1004</v>
+      </c>
+      <c r="H24" s="18">
+        <v>2</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K24" s="13">
+        <v>10107</v>
+      </c>
+      <c r="L24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1004</v>
+      </c>
+      <c r="H25" s="18">
+        <v>5</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="13">
+        <v>10106</v>
+      </c>
+      <c r="L25" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1005</v>
+      </c>
+      <c r="H26" s="18">
+        <v>2</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" s="13">
+        <v>10105</v>
+      </c>
+      <c r="L26" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="13">
+        <v>2</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1005</v>
+      </c>
+      <c r="H27" s="18">
+        <v>4</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" s="13">
+        <v>10107</v>
+      </c>
+      <c r="L27" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="13">
+        <v>3</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1005</v>
+      </c>
+      <c r="H28" s="18">
+        <v>5</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" s="13">
+        <v>10103</v>
+      </c>
+      <c r="L28" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="13">
+        <v>4</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H38" s="19"/>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H39" s="19"/>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="19"/>
+    </row>
+    <row r="41" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H42" s="19"/>
+    </row>
+    <row r="43" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H44" s="19"/>
+    </row>
+    <row r="45" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H45" s="19"/>
+    </row>
+    <row r="46" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId4" name="Group Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>304800</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
 </file>